--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1954.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1954.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.027*"exchange" + 0.020*"import" + 0.016*"export" + 0.016*"rate" + 0.016*"payment" + 0.013*"country" + 0.012*"account" + 0.012*"bank" + 0.011*"per" + 0.011*"currency"</t>
-  </si>
-  <si>
-    <t>0.019*"exchange" + 0.013*"payment" + 0.012*"export" + 0.011*"import" + 0.009*"currency" + 0.009*"account" + 0.008*"country" + 0.008*"rate" + 0.008*"bank" + 0.007*"per"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"import" + 0.001*"export" + 0.001*"country" + 0.001*"rate" + 0.001*"payment" + 0.001*"account" + 0.001*"license" + 0.001*"bank" + 0.001*"currency"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.001*"export" + 0.001*"import" + 0.001*"rate" + 0.001*"account" + 0.001*"bank" + 0.001*"currency" + 0.001*"foreign" + 0.001*"payment" + 0.001*"country"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"payment" + 0.001*"rate" + 0.001*"export" + 0.001*"country" + 0.001*"import" + 0.001*"account" + 0.001*"currency" + 0.001*"foreign" + 0.001*"license"</t>
+    <t>0.046*"exchange" + 0.037*"control" + 0.033*"capital" + 0.028*"redistribution" + 0.023*"foreign" + 0.015*"restriction" + 0.014*"bank" + 0.013*"republic" + 0.012*"report" + 0.011*"transfer"</t>
+  </si>
+  <si>
+    <t>0.055*"per" + 0.044*"export" + 0.029*"cent" + 0.022*"exchange" + 0.017*"payment" + 0.013*"u" + 0.012*"proceeds" + 0.011*"currency" + 0.011*"make" + 0.009*"agreement"</t>
+  </si>
+  <si>
+    <t>0.111*"rate" + 0.045*"exchange" + 0.043*"market" + 0.043*"monetary" + 0.039*"fund" + 0.038*"free" + 0.034*"international" + 0.032*"official" + 0.016*"export" + 0.012*"transaction"</t>
+  </si>
+  <si>
+    <t>0.034*"bank" + 0.033*"account" + 0.023*"exchange" + 0.020*"proceeds" + 0.018*"must" + 0.018*"may" + 0.017*"currency" + 0.016*"surrender" + 0.015*"authorized" + 0.015*"payment"</t>
+  </si>
+  <si>
+    <t>0.071*"import" + 0.034*"payment" + 0.027*"country" + 0.025*"license" + 0.021*"dollar" + 0.017*"sterling" + 0.017*"currency" + 0.016*"area" + 0.015*"exchange" + 0.014*"certain"</t>
   </si>
 </sst>
 </file>
